--- a/res/verbes.xlsx
+++ b/res/verbes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IUTtravail\cours\excel\cours20182019\captureexcels2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IUTtravail\cours\excel\Excel20192020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75068BEE-5A79-4B8B-8F81-5FE2A088D369}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3280C84F-9570-44E4-9CF4-45D8AD35DAD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22080" windowHeight="8280" xr2:uid="{B01CA153-8D5A-4D81-A2FB-C1CBDCBEF70D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B01CA153-8D5A-4D81-A2FB-C1CBDCBEF70D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
